--- a/reports/nce_migrations/templates/xlsx/template.xlsx
+++ b/reports/nce_migrations/templates/xlsx/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\microsoft_reports\reports2\reports\nce_migrations\templates\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5529F2-2E3D-48A6-BAB2-611735F93819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561739A3-1BA1-490A-94CA-2E718D5EC17F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Data" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Subscription ID</t>
   </si>
@@ -53,6 +53,18 @@
   </si>
   <si>
     <t>Provider Name</t>
+  </si>
+  <si>
+    <t>Connect Subscription ID</t>
+  </si>
+  <si>
+    <t>Marketplace ID</t>
+  </si>
+  <si>
+    <t>Transaction Type</t>
+  </si>
+  <si>
+    <t>Connect Subscription Status</t>
   </si>
 </sst>
 </file>
@@ -60,7 +72,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -397,25 +409,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.42578125" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="49.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25" customWidth="1"/>
+    <col min="12" max="12" width="28" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -446,9 +461,20 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -460,7 +486,7 @@
       <c r="J2" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
